--- a/271025_Results_Med/output/m2/27102025_mod2_by_main_activity.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_main_activity.xlsx
@@ -1992,22 +1992,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>53 (96.4%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>215 (93.5%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>83 (98.8%)</t>
         </is>
       </c>
       <c r="I37">
@@ -2037,22 +2037,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>53 (96.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>215 (93.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>83 (98.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I38">
@@ -2262,32 +2262,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>51 (92.7%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>156 (67.5%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>78 (92.9%)</t>
         </is>
       </c>
       <c r="I43">
@@ -2307,22 +2307,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2352,32 +2352,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>51 (92.7%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>156 (67.5%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>78 (92.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I45">

--- a/271025_Results_Med/output/m2/27102025_mod2_by_main_activity.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_main_activity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1992,32 +1992,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>3000 cc o más</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>53 (96.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>215 (93.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>83 (98.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I37">
@@ -2037,22 +2037,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>53 (96.4%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>215 (93.1%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>83 (98.8%)</t>
         </is>
       </c>
       <c r="I38">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2097,12 +2097,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2117,17 +2117,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_auto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de automóviles (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>30 (13.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2152,11 +2152,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I40">
-        <v>0.011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>16 (6.9%)</t>
+          <t>30 (13.0%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="I41">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14 (6.1%)</t>
+          <t>16 (6.9%)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I42">
@@ -2262,32 +2262,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>51 (92.7%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>156 (67.5%)</t>
+          <t>14 (6.1%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>78 (92.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I43">
@@ -2307,32 +2307,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>51 (92.7%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (96.2%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>156 (67.5%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>78 (92.9%)</t>
         </is>
       </c>
       <c r="I44">
@@ -2352,22 +2352,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10 (4.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2397,22 +2397,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2432,43 +2432,46 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>55 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>26 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>231 (100.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>84 (100.0%)</t>
-        </is>
+          <t>1 (1.2%)</t>
+        </is>
+      </c>
+      <c r="I47">
+        <v>0.011</v>
       </c>
     </row>
     <row r="48">
@@ -3524,7 +3527,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12 (22.6%)</t>
+          <t>12 (21.8%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3544,7 +3547,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>25 (30.5%)</t>
+          <t>25 (29.8%)</t>
         </is>
       </c>
       <c r="I71">
@@ -3564,12 +3567,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (escuela, niñas/os)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3609,7 +3612,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Cuidado y familia (persona con discapacidad)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3619,12 +3622,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>22 (84.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>11 (4.8%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3654,12 +3657,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Cuidado y familia (persona enferma)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2 (3.8%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3679,7 +3682,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I74">
@@ -3699,22 +3702,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Cuidado y familia (recreación, niñas/os)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>27 (50.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>18 (7.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3724,7 +3727,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>44 (53.7%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I75">
@@ -3744,12 +3747,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Cuidado y familia (salud, niñas/os)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7 (13.2%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3759,17 +3762,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>182 (79.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I76">
@@ -3789,22 +3792,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Visitas sociales</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4 (7.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>22 (84.6%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3814,7 +3817,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6 (7.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I77">
@@ -3824,37 +3827,42 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>65.0 (51.0–70.0)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>19.0 (18.0–20.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>38.0 (29.0–49.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>59.5 (58.8–60.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>55.5 (43.8–66.0)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="I78">
@@ -3864,235 +3872,410 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17.5 (15.0–20.0)</t>
+          <t>27 (49.1%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15.0 (10.0–22.5)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>18 (7.8%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10.0 (10.0–10.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>44 (52.4%)</t>
         </is>
       </c>
       <c r="I79">
-        <v>0.0047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–13.5)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
+          <t>182 (78.8%)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10.0 (10.0–10.0)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="I80">
-        <v>0.1822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5.0 (3.5–10.0)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6.0 (5.0–10.0)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12.0 (12.0–12.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>6 (7.1%)</t>
         </is>
       </c>
       <c r="I81">
-        <v>0.8258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>30.0 (17.5–40.0)</t>
+          <t>65.0 (51.0–70.0)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>19.0 (18.0–20.0)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>38.0 (29.0–49.0)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>45.0 (45.0–45.0)</t>
+          <t>59.5 (58.8–60.2)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–37.5)</t>
+          <t>55.5 (43.8–66.0)</t>
         </is>
       </c>
       <c r="I82">
-        <v>0.762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>17.5 (15.0–20.0)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5.0 (1.5–10.0)</t>
+          <t>15.0 (10.0–22.5)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–11.2)</t>
+          <t>30.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>10.0 (10.0–10.0)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>30.0 (20.0–40.0)</t>
         </is>
       </c>
       <c r="I83">
-        <v>0.0389</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>p18_p1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Minutos caminando hasta el modo de transporte</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–13.5)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10.0 (10.0–10.0)</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>0.1822</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>p18_p2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Minutos de espera del transporte</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.0 (3.5–10.0)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>6.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>12.0 (12.0–12.0)</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="I85">
+        <v>0.8258</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>p18_p3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>30.0 (17.5–40.0)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>45.0 (45.0–45.0)</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–37.5)</t>
+        </is>
+      </c>
+      <c r="I86">
+        <v>0.762</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>p18_p4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Minutos caminando después del descenso</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5.0 (1.5–10.0)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="I87">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>p18_c1</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>15.0 (15.0–15.0)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>10.0 (7.0–15.0)</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>20.0 (13.8–32.5)</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>40.0 (30.0–50.0)</t>
         </is>
       </c>
-      <c r="I84">
+      <c r="I88">
         <v>0.3308</v>
       </c>
     </row>
